--- a/code/data/meta/periods_timescale.xlsx
+++ b/code/data/meta/periods_timescale.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Period</t>
   </si>
@@ -32,88 +32,166 @@
     <t>Timescale</t>
   </si>
   <si>
-    <t>Prehistoric</t>
-  </si>
-  <si>
-    <t>&lt; 1100 BC</t>
-  </si>
-  <si>
-    <t>Prehistoric- Classic</t>
-  </si>
-  <si>
-    <t>&lt; 476 AD</t>
-  </si>
-  <si>
-    <t>Protostoric</t>
-  </si>
-  <si>
-    <t>1100 BC – 900 BC</t>
-  </si>
-  <si>
-    <t>Protostoric- Classic</t>
-  </si>
-  <si>
-    <t>1100 BC – 476 AD</t>
-  </si>
-  <si>
-    <t>Preroman</t>
-  </si>
-  <si>
-    <t>768 BC – 290 BC</t>
-  </si>
-  <si>
-    <t>Classic</t>
-  </si>
-  <si>
-    <t>290 BC – 476 AD</t>
-  </si>
-  <si>
-    <t>Classic- Medieval</t>
-  </si>
-  <si>
-    <t>290 BC – 1500 AD</t>
-  </si>
-  <si>
     <t>Medieval</t>
   </si>
   <si>
-    <t>476 AD – 1500 AD</t>
-  </si>
-  <si>
-    <t>Classic- Subrecent</t>
-  </si>
-  <si>
-    <t>290 BC – 1800 AD</t>
-  </si>
-  <si>
-    <t>Medieval- Subrecent</t>
-  </si>
-  <si>
-    <t>476 AD - 1800 AD</t>
-  </si>
-  <si>
     <t>Subrecent</t>
   </si>
   <si>
-    <t>1500 AD – 1800 AD</t>
-  </si>
-  <si>
-    <t>Recent</t>
-  </si>
-  <si>
-    <t>1800 AD – Now</t>
-  </si>
-  <si>
-    <t>Not recorded</t>
-  </si>
-  <si>
     <t>Not dated</t>
   </si>
   <si>
-    <t>Unidentified</t>
-  </si>
-  <si>
     <t>Not datable</t>
+  </si>
+  <si>
+    <t>Neolithic</t>
+  </si>
+  <si>
+    <t>7000-3000 BC</t>
+  </si>
+  <si>
+    <t>Paleolithic</t>
+  </si>
+  <si>
+    <t>Shorthand</t>
+  </si>
+  <si>
+    <t>PAL</t>
+  </si>
+  <si>
+    <t>NEO</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Pre/Proto historic</t>
+  </si>
+  <si>
+    <t>PP1</t>
+  </si>
+  <si>
+    <t>PP2</t>
+  </si>
+  <si>
+    <t>PP3</t>
+  </si>
+  <si>
+    <t>Bronze Age</t>
+  </si>
+  <si>
+    <t>Iron Age</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Hellenistic</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>Early Hellenistic</t>
+  </si>
+  <si>
+    <t>Late Hellenistic</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Early Roman</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Middle Roman</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Late Roman</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>50 BC - 80 AD</t>
+  </si>
+  <si>
+    <t>50 BC - 500 AD</t>
+  </si>
+  <si>
+    <t>200 - 50 BC</t>
+  </si>
+  <si>
+    <t>350 - 200 BC</t>
+  </si>
+  <si>
+    <t>80 - 300 AD</t>
+  </si>
+  <si>
+    <t>300 - 500 AD</t>
+  </si>
+  <si>
+    <t>500 - 1500 AD</t>
+  </si>
+  <si>
+    <t>1500 - 1800 AD</t>
+  </si>
+  <si>
+    <t>350 - 50 BC</t>
+  </si>
+  <si>
+    <t>1300 - 800 BC</t>
+  </si>
+  <si>
+    <t>3000 - 1300 BC</t>
+  </si>
+  <si>
+    <t>NAV</t>
+  </si>
+  <si>
+    <t>PP4</t>
+  </si>
+  <si>
+    <t>Classical</t>
+  </si>
+  <si>
+    <t>Archaic</t>
+  </si>
+  <si>
+    <t>800 - 480 BC</t>
+  </si>
+  <si>
+    <t>480 - 350 BC</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>UNI</t>
+  </si>
+  <si>
+    <t>10000 - 7000 BC</t>
+  </si>
+  <si>
+    <t>3000 - 350 BC</t>
   </si>
 </sst>
 </file>
@@ -465,136 +543,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
+      <c r="C19" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
